--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fabevy\_training\online\fsd-03\fsd-03-js-practice\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEC7A255-4119-4E24-8DC8-F20209662A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90963382-788B-48FC-807A-1774030A7D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10635" yWindow="-16200" windowWidth="17280" windowHeight="14640" xr2:uid="{47D775F5-7F62-482C-B069-4569E127E7F8}"/>
+    <workbookView xWindow="24" yWindow="252" windowWidth="22536" windowHeight="13224" xr2:uid="{47D775F5-7F62-482C-B069-4569E127E7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>Player</t>
   </si>
@@ -39,9 +39,6 @@
     <t>top</t>
   </si>
   <si>
-    <t>1 =&gt; 10</t>
-  </si>
-  <si>
     <t>30 =&gt; 570</t>
   </si>
   <si>
@@ -49,13 +46,6 @@
   </si>
   <si>
     <t>570 =&gt; 30</t>
-  </si>
-  <si>
-    <t>1 =&gt; 10
-21 =&gt; 30
-41 =&gt; 50
-61 =&gt; 70
-81 =&gt; 90</t>
   </si>
   <si>
     <t>11 =&gt; 20
@@ -94,6 +84,31 @@
   <si>
     <t>91 =&gt; 100</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>01 =&gt; 10</t>
+  </si>
+  <si>
+    <t>01 =&gt; 10
+21 =&gt; 30
+41 =&gt; 50
+61 =&gt; 70
+81 =&gt; 90</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Input x</t>
+  </si>
 </sst>
 </file>
 
@@ -122,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -145,25 +160,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,30 +557,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE0213-DF57-4A36-8F90-4960CAC35E2A}">
-  <dimension ref="A1:I102"/>
+  <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="13.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -515,12 +596,13 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>30</v>
       </c>
       <c r="C3" s="1">
@@ -528,12 +610,16 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F3" s="7">
+        <f>(A3-1)/10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>90</v>
       </c>
       <c r="C4" s="1">
@@ -541,12 +627,16 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F4" s="7">
+        <f t="shared" ref="F4:F67" si="0">(A4-1)/10</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>150</v>
       </c>
       <c r="C5" s="1">
@@ -554,12 +644,16 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="2">
         <v>210</v>
       </c>
       <c r="C6" s="1">
@@ -567,12 +661,16 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="2">
         <v>270</v>
       </c>
       <c r="C7" s="1">
@@ -580,12 +678,16 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="2">
         <v>330</v>
       </c>
       <c r="C8" s="1">
@@ -593,12 +695,16 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F8" s="7">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <f>B8+60</f>
         <v>390</v>
       </c>
@@ -607,13 +713,17 @@
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="F9" s="7">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3">
-        <f t="shared" ref="B10:B12" si="0">B9+60</f>
+      <c r="B10" s="2">
+        <f t="shared" ref="B10:B12" si="1">B9+60</f>
         <v>450</v>
       </c>
       <c r="C10" s="1">
@@ -621,22 +731,26 @@
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="G10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="I10" s="6" t="s">
+      <c r="F10" s="7">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="H10" s="10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="I10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3">
-        <f t="shared" si="0"/>
+      <c r="B11" s="2">
+        <f t="shared" si="1"/>
         <v>510</v>
       </c>
       <c r="C11" s="1">
@@ -644,20 +758,24 @@
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="6" t="s">
+      <c r="F11" s="7">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="3">
-        <f t="shared" si="0"/>
+      <c r="B12" s="2">
+        <f t="shared" si="1"/>
         <v>570</v>
       </c>
       <c r="C12" s="1">
@@ -665,17 +783,28 @@
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>10</v>
+      <c r="F12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J12" s="1">
         <v>550</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f>550-(K12*60)</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -687,16 +816,27 @@
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="1">
-        <f>I12-60</f>
+      <c r="F13" s="7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1">
+        <f>J12-60</f>
         <v>490</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ref="L13:L21" si="2">550-(K13*60)</f>
+        <v>490</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -709,21 +849,32 @@
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" ref="I14:I21" si="1">I13-60</f>
+      <c r="F14" s="7">
+        <f t="shared" si="0"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <f t="shared" ref="J14:J21" si="3">J13-60</f>
         <v>430</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <f t="shared" ref="B15:B22" si="2">B14-60</f>
+        <f t="shared" ref="B15:B22" si="4">B14-60</f>
         <v>450</v>
       </c>
       <c r="C15" s="1">
@@ -731,21 +882,32 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
+      <c r="F15" s="7">
+        <f t="shared" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="3"/>
         <v>370</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>390</v>
       </c>
       <c r="C16" s="1">
@@ -753,21 +915,32 @@
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
+      <c r="F16" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="3"/>
         <v>310</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>330</v>
       </c>
       <c r="C17" s="1">
@@ -775,21 +948,32 @@
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
+      <c r="F17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="1">
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>270</v>
       </c>
       <c r="C18" s="1">
@@ -797,21 +981,32 @@
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
+      <c r="F18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J18" s="1">
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>6</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>210</v>
       </c>
       <c r="C19" s="1">
@@ -819,21 +1014,32 @@
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
+      <c r="F19" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>7</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>150</v>
       </c>
       <c r="C20" s="1">
@@ -841,21 +1047,32 @@
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
+      <c r="F20" s="7">
+        <f t="shared" si="0"/>
+        <v>1.7</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <v>8</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>90</v>
       </c>
       <c r="C21" s="1">
@@ -863,21 +1080,32 @@
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="1"/>
+      <c r="F21" s="7">
+        <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C22" s="1">
@@ -885,12 +1113,22 @@
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F22" s="7">
+        <f t="shared" si="0"/>
+        <v>1.9</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>30</v>
       </c>
       <c r="C23" s="1">
@@ -898,12 +1136,22 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F23" s="7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>90</v>
       </c>
       <c r="C24" s="1">
@@ -911,12 +1159,35 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F24" s="7">
+        <f t="shared" si="0"/>
+        <v>2.1</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="1">
+        <v>1</v>
+      </c>
+      <c r="J24" s="2">
+        <v>30</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ref="K24:K33" si="5">(I24*60) - 30</f>
+        <v>30</v>
+      </c>
+      <c r="L24">
+        <f>((I24-1)*60)+30</f>
+        <v>30</v>
+      </c>
+      <c r="N24" s="8"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>150</v>
       </c>
       <c r="C25" s="1">
@@ -924,12 +1195,33 @@
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F25" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H25" s="10"/>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>90</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="L25">
+        <f>((I25-1)*60)+30</f>
+        <v>90</v>
+      </c>
+      <c r="N25" s="10"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>210</v>
       </c>
       <c r="C26" s="1">
@@ -937,12 +1229,33 @@
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F26" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H26" s="10"/>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="2">
+        <v>150</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>150</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26:L33" si="6">((I26-1)*60)+30</f>
+        <v>150</v>
+      </c>
+      <c r="N26" s="10"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>270</v>
       </c>
       <c r="C27" s="1">
@@ -950,12 +1263,33 @@
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F27" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="I27" s="1">
+        <v>4</v>
+      </c>
+      <c r="J27" s="2">
+        <v>210</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>210</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>210</v>
+      </c>
+      <c r="N27" s="10"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>330</v>
       </c>
       <c r="C28" s="1">
@@ -963,12 +1297,33 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F28" s="7">
+        <f t="shared" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="I28" s="1">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>270</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>270</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="6"/>
+        <v>270</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>390</v>
       </c>
       <c r="C29" s="1">
@@ -976,12 +1331,33 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F29" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="1">
+        <v>6</v>
+      </c>
+      <c r="J29" s="2">
+        <v>330</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="N29" s="10"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>450</v>
       </c>
       <c r="C30" s="1">
@@ -989,12 +1365,34 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F30" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="H30" s="10"/>
+      <c r="I30" s="1">
+        <v>7</v>
+      </c>
+      <c r="J30" s="2">
+        <f>J29+60</f>
+        <v>390</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>390</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>390</v>
+      </c>
+      <c r="N30" s="10"/>
+      <c r="O30" s="13"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>510</v>
       </c>
       <c r="C31" s="1">
@@ -1002,12 +1400,34 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F31" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="H31" s="10"/>
+      <c r="I31" s="1">
+        <v>8</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" ref="J31:J33" si="7">J30+60</f>
+        <v>450</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>450</v>
+      </c>
+      <c r="N31" s="10"/>
+      <c r="O31" s="13"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="2">
         <v>570</v>
       </c>
       <c r="C32" s="1">
@@ -1015,8 +1435,30 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="7">
+        <f t="shared" si="0"/>
+        <v>2.9</v>
+      </c>
+      <c r="H32" s="10"/>
+      <c r="I32" s="1">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="7"/>
+        <v>510</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="5"/>
+        <v>510</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>510</v>
+      </c>
+      <c r="N32" s="10"/>
+      <c r="O32" s="13"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1029,8 +1471,30 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="7">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H33" s="10"/>
+      <c r="I33" s="1">
+        <v>10</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="7"/>
+        <v>570</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="5"/>
+        <v>570</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>570</v>
+      </c>
+      <c r="N33" s="10"/>
+      <c r="O33" s="13"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1042,8 +1506,27 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F34" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>570</v>
+      </c>
+      <c r="K34">
+        <f>((11-I34-1)*60)+30</f>
+        <v>570</v>
+      </c>
+      <c r="N34" s="8"/>
+      <c r="O34" s="13"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1055,8 +1538,25 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="7">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+      <c r="H35" s="8"/>
+      <c r="I35" s="1">
+        <v>2</v>
+      </c>
+      <c r="J35" s="1">
+        <v>510</v>
+      </c>
+      <c r="K35">
+        <f t="shared" ref="K35:K43" si="8">((11-I35-1)*60)+30</f>
+        <v>510</v>
+      </c>
+      <c r="N35" s="8"/>
+      <c r="O35" s="13"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1068,8 +1568,25 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="7">
+        <f t="shared" si="0"/>
+        <v>3.3</v>
+      </c>
+      <c r="H36" s="8"/>
+      <c r="I36" s="1">
+        <v>3</v>
+      </c>
+      <c r="J36" s="1">
+        <v>450</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="8"/>
+        <v>450</v>
+      </c>
+      <c r="N36" s="8"/>
+      <c r="O36" s="13"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1081,8 +1598,25 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="7">
+        <f t="shared" si="0"/>
+        <v>3.4</v>
+      </c>
+      <c r="H37" s="8"/>
+      <c r="I37" s="1">
+        <v>4</v>
+      </c>
+      <c r="J37" s="1">
+        <v>390</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="8"/>
+        <v>390</v>
+      </c>
+      <c r="N37" s="8"/>
+      <c r="O37" s="13"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1094,8 +1628,25 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="7">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="H38" s="8"/>
+      <c r="I38" s="1">
+        <v>5</v>
+      </c>
+      <c r="J38" s="1">
+        <v>330</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="N38" s="8"/>
+      <c r="O38" s="13"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1107,8 +1658,25 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="7">
+        <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="H39" s="8"/>
+      <c r="I39" s="1">
+        <v>6</v>
+      </c>
+      <c r="J39" s="1">
+        <v>270</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="8"/>
+        <v>270</v>
+      </c>
+      <c r="N39" s="8"/>
+      <c r="O39" s="13"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1120,8 +1688,25 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="7">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="H40" s="8"/>
+      <c r="I40" s="1">
+        <v>7</v>
+      </c>
+      <c r="J40" s="1">
+        <v>210</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="8"/>
+        <v>210</v>
+      </c>
+      <c r="N40" s="8"/>
+      <c r="O40" s="13"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1133,8 +1718,25 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="7">
+        <f t="shared" si="0"/>
+        <v>3.8</v>
+      </c>
+      <c r="H41" s="8"/>
+      <c r="I41" s="1">
+        <v>8</v>
+      </c>
+      <c r="J41" s="1">
+        <v>150</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="8"/>
+        <v>150</v>
+      </c>
+      <c r="N41" s="8"/>
+      <c r="O41" s="13"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1146,118 +1748,188 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9</v>
+      </c>
+      <c r="H42" s="8"/>
+      <c r="I42" s="1">
+        <v>9</v>
+      </c>
+      <c r="J42" s="1">
+        <v>90</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="8"/>
+        <v>90</v>
+      </c>
+      <c r="N42" s="8"/>
+      <c r="O42" s="13"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="2">
         <v>30</v>
       </c>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="H43" s="8"/>
+      <c r="I43" s="1">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1">
+        <v>30</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="N43" s="8"/>
+      <c r="O43" s="13"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="2">
         <v>90</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="7">
+        <f t="shared" si="0"/>
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="2">
         <v>150</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="7">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="2">
         <v>210</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F46" s="7">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="2">
         <v>270</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="2">
         <v>330</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="2">
         <v>390</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="7">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="2">
         <v>450</v>
       </c>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="7">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="2">
         <v>510</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="2">
         <v>570</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="7">
+        <f t="shared" si="0"/>
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1267,8 +1939,12 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" s="7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1278,8 +1954,12 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="7">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1289,8 +1969,12 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1300,8 +1984,12 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="7">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1311,8 +1999,12 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="7">
+        <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1322,8 +2014,12 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="7">
+        <f t="shared" si="0"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1333,8 +2029,12 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1344,8 +2044,12 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="7">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1355,8 +2059,12 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="7">
+        <f t="shared" si="0"/>
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1366,118 +2074,162 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="7">
+        <f t="shared" si="0"/>
+        <v>5.9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="2">
         <v>30</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="2">
         <v>90</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="7">
+        <f t="shared" si="0"/>
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="2">
         <v>150</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="7">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="2">
         <v>210</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="7">
+        <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="2">
         <v>270</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="7">
+        <f t="shared" si="0"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="2">
         <v>330</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="7">
+        <f t="shared" ref="F68:F102" si="9">(A68-1)/10</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="2">
         <v>390</v>
       </c>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="7">
+        <f t="shared" si="9"/>
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="2">
         <v>450</v>
       </c>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="7">
+        <f t="shared" si="9"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="2">
         <v>510</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="7">
+        <f t="shared" si="9"/>
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="2">
         <v>570</v>
       </c>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="7">
+        <f t="shared" si="9"/>
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1487,8 +2239,12 @@
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="7">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1498,8 +2254,12 @@
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="7">
+        <f t="shared" si="9"/>
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1509,8 +2269,12 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="7">
+        <f t="shared" si="9"/>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1520,8 +2284,12 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="7">
+        <f t="shared" si="9"/>
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1531,8 +2299,12 @@
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="7">
+        <f t="shared" si="9"/>
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1542,8 +2314,12 @@
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="7">
+        <f t="shared" si="9"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1553,8 +2329,12 @@
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="7">
+        <f t="shared" si="9"/>
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1564,8 +2344,12 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" s="7">
+        <f t="shared" si="9"/>
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1575,8 +2359,12 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="7">
+        <f t="shared" si="9"/>
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1586,118 +2374,162 @@
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="7">
+        <f t="shared" si="9"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="2">
         <v>30</v>
       </c>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="7">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="2">
         <v>90</v>
       </c>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="7">
+        <f t="shared" si="9"/>
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="2">
         <v>150</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="7">
+        <f t="shared" si="9"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="2">
         <v>210</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="7">
+        <f t="shared" si="9"/>
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="2">
         <v>270</v>
       </c>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="7">
+        <f t="shared" si="9"/>
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="2">
         <v>330</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="7">
+        <f t="shared" si="9"/>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="2">
         <v>390</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="7">
+        <f t="shared" si="9"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="2">
         <v>450</v>
       </c>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F90" s="7">
+        <f t="shared" si="9"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="2">
         <v>510</v>
       </c>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F91" s="7">
+        <f t="shared" si="9"/>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="2">
         <v>570</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F92" s="7">
+        <f t="shared" si="9"/>
+        <v>8.9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1707,8 +2539,12 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="7">
+        <f t="shared" si="9"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1718,8 +2554,12 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="7">
+        <f t="shared" si="9"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1729,8 +2569,12 @@
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="7">
+        <f t="shared" si="9"/>
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1740,8 +2584,12 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="7">
+        <f t="shared" si="9"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1751,8 +2599,12 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="7">
+        <f t="shared" si="9"/>
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -1762,8 +2614,12 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="7">
+        <f t="shared" si="9"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -1773,8 +2629,12 @@
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="7">
+        <f t="shared" si="9"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -1784,8 +2644,12 @@
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="7">
+        <f t="shared" si="9"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -1795,8 +2659,12 @@
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="7">
+        <f t="shared" si="9"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -1806,12 +2674,23 @@
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
+      <c r="F102" s="7">
+        <f t="shared" si="9"/>
+        <v>9.9</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="10">
+    <mergeCell ref="N24:N33"/>
+    <mergeCell ref="N34:N43"/>
+    <mergeCell ref="O24:O33"/>
+    <mergeCell ref="O34:O43"/>
+    <mergeCell ref="H34:H43"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H24:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/doc/requirement.xlsx
+++ b/doc/requirement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\fabevy\_training\online\fsd-03\fsd-03-js-practice\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90963382-788B-48FC-807A-1774030A7D79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60DC283-24FC-40EC-B11A-DC6FD1D71198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="252" windowWidth="22536" windowHeight="13224" xr2:uid="{47D775F5-7F62-482C-B069-4569E127E7F8}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{47D775F5-7F62-482C-B069-4569E127E7F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Player</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>Input x</t>
+  </si>
+  <si>
+    <t>playerScore</t>
   </si>
 </sst>
 </file>
@@ -229,19 +232,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -559,31 +562,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CAE0213-DF57-4A36-8F90-4960CAC35E2A}">
   <dimension ref="A1:O102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34:H43"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="12"/>
+      <c r="A2" s="13"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
@@ -735,7 +739,7 @@
         <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="9" t="s">
         <v>5</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -762,7 +766,7 @@
         <f t="shared" si="0"/>
         <v>0.8</v>
       </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1140,6 +1144,9 @@
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
+      <c r="H23" t="s">
+        <v>25</v>
+      </c>
       <c r="I23" s="5" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1188,7 @@
         <v>30</v>
       </c>
       <c r="N24" s="8"/>
-      <c r="O24" s="13"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -1199,7 +1206,7 @@
         <f t="shared" si="0"/>
         <v>2.2000000000000002</v>
       </c>
-      <c r="H25" s="10"/>
+      <c r="H25" s="9"/>
       <c r="I25" s="1">
         <v>2</v>
       </c>
@@ -1214,8 +1221,8 @@
         <f>((I25-1)*60)+30</f>
         <v>90</v>
       </c>
-      <c r="N25" s="10"/>
-      <c r="O25" s="13"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -1233,7 +1240,7 @@
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="H26" s="10"/>
+      <c r="H26" s="9"/>
       <c r="I26" s="1">
         <v>3</v>
       </c>
@@ -1248,8 +1255,8 @@
         <f t="shared" ref="L26:L33" si="6">((I26-1)*60)+30</f>
         <v>150</v>
       </c>
-      <c r="N26" s="10"/>
-      <c r="O26" s="13"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1267,7 +1274,7 @@
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="H27" s="10"/>
+      <c r="H27" s="9"/>
       <c r="I27" s="1">
         <v>4</v>
       </c>
@@ -1282,8 +1289,8 @@
         <f t="shared" si="6"/>
         <v>210</v>
       </c>
-      <c r="N27" s="10"/>
-      <c r="O27" s="13"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -1301,7 +1308,7 @@
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
-      <c r="H28" s="10"/>
+      <c r="H28" s="9"/>
       <c r="I28" s="1">
         <v>5</v>
       </c>
@@ -1316,8 +1323,8 @@
         <f t="shared" si="6"/>
         <v>270</v>
       </c>
-      <c r="N28" s="10"/>
-      <c r="O28" s="13"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="10"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -1335,7 +1342,7 @@
         <f t="shared" si="0"/>
         <v>2.6</v>
       </c>
-      <c r="H29" s="10"/>
+      <c r="H29" s="9"/>
       <c r="I29" s="1">
         <v>6</v>
       </c>
@@ -1350,8 +1357,8 @@
         <f t="shared" si="6"/>
         <v>330</v>
       </c>
-      <c r="N29" s="10"/>
-      <c r="O29" s="13"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="10"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -1369,7 +1376,7 @@
         <f t="shared" si="0"/>
         <v>2.7</v>
       </c>
-      <c r="H30" s="10"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="1">
         <v>7</v>
       </c>
@@ -1385,8 +1392,8 @@
         <f t="shared" si="6"/>
         <v>390</v>
       </c>
-      <c r="N30" s="10"/>
-      <c r="O30" s="13"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="10"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -1404,7 +1411,7 @@
         <f t="shared" si="0"/>
         <v>2.8</v>
       </c>
-      <c r="H31" s="10"/>
+      <c r="H31" s="9"/>
       <c r="I31" s="1">
         <v>8</v>
       </c>
@@ -1420,8 +1427,8 @@
         <f t="shared" si="6"/>
         <v>450</v>
       </c>
-      <c r="N31" s="10"/>
-      <c r="O31" s="13"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="10"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -1439,7 +1446,7 @@
         <f t="shared" si="0"/>
         <v>2.9</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="9"/>
       <c r="I32" s="1">
         <v>9</v>
       </c>
@@ -1455,8 +1462,8 @@
         <f t="shared" si="6"/>
         <v>510</v>
       </c>
-      <c r="N32" s="10"/>
-      <c r="O32" s="13"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="10"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
@@ -1475,7 +1482,7 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="9"/>
       <c r="I33" s="1">
         <v>10</v>
       </c>
@@ -1491,8 +1498,8 @@
         <f t="shared" si="6"/>
         <v>570</v>
       </c>
-      <c r="N33" s="10"/>
-      <c r="O33" s="13"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="10"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
@@ -1524,7 +1531,7 @@
         <v>570</v>
       </c>
       <c r="N34" s="8"/>
-      <c r="O34" s="13"/>
+      <c r="O34" s="10"/>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
@@ -1554,7 +1561,7 @@
         <v>510</v>
       </c>
       <c r="N35" s="8"/>
-      <c r="O35" s="13"/>
+      <c r="O35" s="10"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
@@ -1584,7 +1591,7 @@
         <v>450</v>
       </c>
       <c r="N36" s="8"/>
-      <c r="O36" s="13"/>
+      <c r="O36" s="10"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -1614,7 +1621,7 @@
         <v>390</v>
       </c>
       <c r="N37" s="8"/>
-      <c r="O37" s="13"/>
+      <c r="O37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -1644,7 +1651,7 @@
         <v>330</v>
       </c>
       <c r="N38" s="8"/>
-      <c r="O38" s="13"/>
+      <c r="O38" s="10"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -1674,7 +1681,7 @@
         <v>270</v>
       </c>
       <c r="N39" s="8"/>
-      <c r="O39" s="13"/>
+      <c r="O39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -1704,7 +1711,7 @@
         <v>210</v>
       </c>
       <c r="N40" s="8"/>
-      <c r="O40" s="13"/>
+      <c r="O40" s="10"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -1734,7 +1741,7 @@
         <v>150</v>
       </c>
       <c r="N41" s="8"/>
-      <c r="O41" s="13"/>
+      <c r="O41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -1764,7 +1771,7 @@
         <v>90</v>
       </c>
       <c r="N42" s="8"/>
-      <c r="O42" s="13"/>
+      <c r="O42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -1792,7 +1799,7 @@
         <v>30</v>
       </c>
       <c r="N43" s="8"/>
-      <c r="O43" s="13"/>
+      <c r="O43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -2681,16 +2688,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H24:H33"/>
     <mergeCell ref="N24:N33"/>
     <mergeCell ref="N34:N43"/>
     <mergeCell ref="O24:O33"/>
     <mergeCell ref="O34:O43"/>
     <mergeCell ref="H34:H43"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H24:H33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
